--- a/Team-Data/2014-15/12-11-2014-15.xlsx
+++ b/Team-Data/2014-15/12-11-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,10 +811,10 @@
         <v>5.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF2" t="n">
         <v>6</v>
@@ -759,10 +826,10 @@
         <v>11</v>
       </c>
       <c r="AI2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
         <v>4</v>
@@ -777,10 +844,10 @@
         <v>3</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ2" t="n">
         <v>10</v>
@@ -789,7 +856,7 @@
         <v>28</v>
       </c>
       <c r="AS2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT2" t="n">
         <v>27</v>
@@ -801,13 +868,13 @@
         <v>20</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX2" t="n">
         <v>13</v>
       </c>
       <c r="AY2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
@@ -816,10 +883,10 @@
         <v>11</v>
       </c>
       <c r="BB2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-11-2014-15</t>
+          <t>2014-12-11</t>
         </is>
       </c>
     </row>
@@ -938,7 +1005,7 @@
         <v>22</v>
       </c>
       <c r="AH3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI3" t="n">
         <v>2</v>
@@ -947,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL3" t="n">
         <v>14</v>
@@ -971,10 +1038,10 @@
         <v>19</v>
       </c>
       <c r="AS3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU3" t="n">
         <v>3</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-11-2014-15</t>
+          <t>2014-12-11</t>
         </is>
       </c>
     </row>
@@ -1111,13 +1178,13 @@
         <v>28</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH4" t="n">
         <v>1</v>
@@ -1132,13 +1199,13 @@
         <v>22</v>
       </c>
       <c r="AL4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM4" t="n">
         <v>20</v>
       </c>
       <c r="AN4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO4" t="n">
         <v>18</v>
@@ -1153,7 +1220,7 @@
         <v>22</v>
       </c>
       <c r="AS4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT4" t="n">
         <v>14</v>
@@ -1171,10 +1238,10 @@
         <v>23</v>
       </c>
       <c r="AY4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA4" t="n">
         <v>22</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-11-2014-15</t>
+          <t>2014-12-11</t>
         </is>
       </c>
     </row>
@@ -1290,19 +1357,19 @@
         <v>-6.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE5" t="n">
         <v>24</v>
       </c>
       <c r="AF5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG5" t="n">
         <v>24</v>
       </c>
       <c r="AH5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI5" t="n">
         <v>21</v>
@@ -1335,7 +1402,7 @@
         <v>26</v>
       </c>
       <c r="AS5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT5" t="n">
         <v>19</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-11-2014-15</t>
+          <t>2014-12-11</t>
         </is>
       </c>
     </row>
@@ -1472,28 +1539,28 @@
         <v>3.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
         <v>11</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL6" t="n">
         <v>13</v>
@@ -1502,7 +1569,7 @@
         <v>18</v>
       </c>
       <c r="AN6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO6" t="n">
         <v>3</v>
@@ -1526,16 +1593,16 @@
         <v>9</v>
       </c>
       <c r="AV6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW6" t="n">
         <v>27</v>
       </c>
       <c r="AX6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ6" t="n">
         <v>12</v>
@@ -1544,7 +1611,7 @@
         <v>2</v>
       </c>
       <c r="BB6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC6" t="n">
         <v>12</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-11-2014-15</t>
+          <t>2014-12-11</t>
         </is>
       </c>
     </row>
@@ -1576,139 +1643,139 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" t="n">
-        <v>0.619</v>
+        <v>0.65</v>
       </c>
       <c r="H7" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I7" t="n">
-        <v>37.4</v>
+        <v>37.7</v>
       </c>
       <c r="J7" t="n">
-        <v>81.09999999999999</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.461</v>
+        <v>0.466</v>
       </c>
       <c r="L7" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M7" t="n">
-        <v>21.9</v>
+        <v>21.6</v>
       </c>
       <c r="N7" t="n">
-        <v>0.359</v>
+        <v>0.361</v>
       </c>
       <c r="O7" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="P7" t="n">
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
       <c r="Q7" t="n">
         <v>0.769</v>
       </c>
       <c r="R7" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="S7" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T7" t="n">
-        <v>41.5</v>
+        <v>41.2</v>
       </c>
       <c r="U7" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="V7" t="n">
         <v>14.1</v>
       </c>
       <c r="W7" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X7" t="n">
         <v>4.3</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AA7" t="n">
         <v>22.2</v>
       </c>
       <c r="AB7" t="n">
-        <v>103</v>
+        <v>103.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG7" t="n">
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AK7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AL7" t="n">
         <v>12</v>
       </c>
       <c r="AM7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ7" t="n">
         <v>13</v>
       </c>
       <c r="AR7" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AS7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT7" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AU7" t="n">
         <v>10</v>
       </c>
       <c r="AV7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW7" t="n">
         <v>16</v>
@@ -1717,19 +1784,19 @@
         <v>22</v>
       </c>
       <c r="AY7" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AZ7" t="n">
         <v>2</v>
       </c>
       <c r="BA7" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB7" t="n">
         <v>7</v>
       </c>
-      <c r="BB7" t="n">
-        <v>9</v>
-      </c>
       <c r="BC7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-11-2014-15</t>
+          <t>2014-12-11</t>
         </is>
       </c>
     </row>
@@ -1758,67 +1825,67 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" t="n">
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G8" t="n">
-        <v>0.739</v>
+        <v>0.708</v>
       </c>
       <c r="H8" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I8" t="n">
-        <v>41.7</v>
+        <v>41.5</v>
       </c>
       <c r="J8" t="n">
-        <v>86.59999999999999</v>
+        <v>86.2</v>
       </c>
       <c r="K8" t="n">
         <v>0.482</v>
       </c>
       <c r="L8" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="M8" t="n">
-        <v>27.7</v>
+        <v>27.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="O8" t="n">
         <v>17.8</v>
       </c>
       <c r="P8" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.768</v>
+        <v>0.77</v>
       </c>
       <c r="R8" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S8" t="n">
-        <v>30.6</v>
+        <v>30.3</v>
       </c>
       <c r="T8" t="n">
-        <v>41.8</v>
+        <v>41.5</v>
       </c>
       <c r="U8" t="n">
-        <v>23.8</v>
+        <v>23.5</v>
       </c>
       <c r="V8" t="n">
         <v>11.7</v>
       </c>
       <c r="W8" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X8" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y8" t="n">
         <v>3.2</v>
@@ -1827,28 +1894,28 @@
         <v>20.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>110.9</v>
+        <v>110.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>2</v>
       </c>
       <c r="AF8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI8" t="n">
         <v>1</v>
@@ -1857,7 +1924,7 @@
         <v>4</v>
       </c>
       <c r="AK8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL8" t="n">
         <v>4</v>
@@ -1869,34 +1936,34 @@
         <v>15</v>
       </c>
       <c r="AO8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AR8" t="n">
         <v>12</v>
       </c>
       <c r="AS8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT8" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AU8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY8" t="n">
         <v>2</v>
@@ -1911,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="BC8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-11-2014-15</t>
+          <t>2014-12-11</t>
         </is>
       </c>
     </row>
@@ -2018,19 +2085,19 @@
         <v>-1.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>16</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI9" t="n">
         <v>13</v>
@@ -2048,7 +2115,7 @@
         <v>6</v>
       </c>
       <c r="AN9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO9" t="n">
         <v>8</v>
@@ -2057,13 +2124,13 @@
         <v>7</v>
       </c>
       <c r="AQ9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR9" t="n">
         <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT9" t="n">
         <v>4</v>
@@ -2072,16 +2139,16 @@
         <v>17</v>
       </c>
       <c r="AV9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX9" t="n">
         <v>14</v>
       </c>
       <c r="AY9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ9" t="n">
         <v>29</v>
@@ -2090,7 +2157,7 @@
         <v>13</v>
       </c>
       <c r="BB9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC9" t="n">
         <v>17</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-11-2014-15</t>
+          <t>2014-12-11</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-6.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>29</v>
@@ -2212,13 +2279,13 @@
         <v>29</v>
       </c>
       <c r="AH10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI10" t="n">
         <v>29</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK10" t="n">
         <v>30</v>
@@ -2251,7 +2318,7 @@
         <v>7</v>
       </c>
       <c r="AU10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV10" t="n">
         <v>8</v>
@@ -2269,7 +2336,7 @@
         <v>8</v>
       </c>
       <c r="BA10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB10" t="n">
         <v>29</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-11-2014-15</t>
+          <t>2014-12-11</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>11.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2403,7 +2470,7 @@
         <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL11" t="n">
         <v>6</v>
@@ -2436,7 +2503,7 @@
         <v>2</v>
       </c>
       <c r="AV11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW11" t="n">
         <v>6</v>
@@ -2451,7 +2518,7 @@
         <v>10</v>
       </c>
       <c r="BA11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB11" t="n">
         <v>4</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-11-2014-15</t>
+          <t>2014-12-11</t>
         </is>
       </c>
     </row>
@@ -2498,73 +2565,73 @@
         <v>0.762</v>
       </c>
       <c r="H12" t="n">
-        <v>48.5</v>
+        <v>48.2</v>
       </c>
       <c r="I12" t="n">
-        <v>34.7</v>
+        <v>34.4</v>
       </c>
       <c r="J12" t="n">
-        <v>81.5</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.426</v>
+        <v>0.427</v>
       </c>
       <c r="L12" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="M12" t="n">
-        <v>34.7</v>
+        <v>34</v>
       </c>
       <c r="N12" t="n">
-        <v>0.346</v>
+        <v>0.349</v>
       </c>
       <c r="O12" t="n">
-        <v>17.4</v>
+        <v>18</v>
       </c>
       <c r="P12" t="n">
-        <v>24.3</v>
+        <v>25.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.714</v>
+        <v>0.711</v>
       </c>
       <c r="R12" t="n">
         <v>12.4</v>
       </c>
       <c r="S12" t="n">
-        <v>31.4</v>
+        <v>31.6</v>
       </c>
       <c r="T12" t="n">
-        <v>43.8</v>
+        <v>44</v>
       </c>
       <c r="U12" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="V12" t="n">
         <v>17.8</v>
       </c>
       <c r="W12" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="X12" t="n">
         <v>5.1</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.6</v>
+        <v>21</v>
       </c>
       <c r="AB12" t="n">
-        <v>98.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="AD12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE12" t="n">
         <v>5</v>
@@ -2576,13 +2643,13 @@
         <v>4</v>
       </c>
       <c r="AH12" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>27</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>19</v>
       </c>
       <c r="AK12" t="n">
         <v>27</v>
@@ -2597,10 +2664,10 @@
         <v>16</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AP12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
@@ -2609,37 +2676,37 @@
         <v>4</v>
       </c>
       <c r="AS12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AU12" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX12" t="n">
         <v>8</v>
       </c>
       <c r="AY12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>27</v>
       </c>
-      <c r="AZ12" t="n">
-        <v>26</v>
-      </c>
       <c r="BA12" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-11-2014-15</t>
+          <t>2014-12-11</t>
         </is>
       </c>
     </row>
@@ -2746,19 +2813,19 @@
         <v>-3.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
         <v>22</v>
       </c>
       <c r="AF13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG13" t="n">
         <v>23</v>
       </c>
       <c r="AH13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
@@ -2773,7 +2840,7 @@
         <v>17</v>
       </c>
       <c r="AM13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN13" t="n">
         <v>21</v>
@@ -2788,7 +2855,7 @@
         <v>27</v>
       </c>
       <c r="AR13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS13" t="n">
         <v>5</v>
@@ -2812,13 +2879,13 @@
         <v>20</v>
       </c>
       <c r="AZ13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC13" t="n">
         <v>20</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-11-2014-15</t>
+          <t>2014-12-11</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>7.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
@@ -2946,7 +3013,7 @@
         <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AK14" t="n">
         <v>1</v>
@@ -2967,13 +3034,13 @@
         <v>13</v>
       </c>
       <c r="AQ14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AR14" t="n">
         <v>30</v>
       </c>
       <c r="AS14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT14" t="n">
         <v>28</v>
@@ -2985,7 +3052,7 @@
         <v>6</v>
       </c>
       <c r="AW14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX14" t="n">
         <v>11</v>
@@ -3003,7 +3070,7 @@
         <v>3</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-11-2014-15</t>
+          <t>2014-12-11</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15" t="n">
         <v>6</v>
       </c>
       <c r="F15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15" t="n">
-        <v>0.286</v>
+        <v>0.273</v>
       </c>
       <c r="H15" t="n">
         <v>48.5</v>
       </c>
       <c r="I15" t="n">
-        <v>38.7</v>
+        <v>38.2</v>
       </c>
       <c r="J15" t="n">
-        <v>87.3</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.444</v>
+        <v>0.44</v>
       </c>
       <c r="L15" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
-        <v>18.8</v>
+        <v>18.4</v>
       </c>
       <c r="N15" t="n">
-        <v>0.327</v>
+        <v>0.326</v>
       </c>
       <c r="O15" t="n">
-        <v>19.3</v>
+        <v>19.9</v>
       </c>
       <c r="P15" t="n">
-        <v>26.1</v>
+        <v>26.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.741</v>
+        <v>0.744</v>
       </c>
       <c r="R15" t="n">
         <v>12.1</v>
       </c>
       <c r="S15" t="n">
-        <v>30</v>
+        <v>29.7</v>
       </c>
       <c r="T15" t="n">
-        <v>42.1</v>
+        <v>41.8</v>
       </c>
       <c r="U15" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="V15" t="n">
         <v>12</v>
@@ -3092,40 +3159,40 @@
         <v>7.2</v>
       </c>
       <c r="X15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y15" t="n">
         <v>3.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>22</v>
+        <v>22.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>21.8</v>
+        <v>22.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.9</v>
+        <v>102.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>-7.3</v>
+        <v>-7.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>24</v>
       </c>
       <c r="AF15" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI15" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AJ15" t="n">
         <v>2</v>
@@ -3137,28 +3204,28 @@
         <v>26</v>
       </c>
       <c r="AM15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO15" t="n">
         <v>6</v>
       </c>
       <c r="AP15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR15" t="n">
         <v>6</v>
       </c>
-      <c r="AQ15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>5</v>
-      </c>
       <c r="AS15" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AT15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU15" t="n">
         <v>23</v>
@@ -3167,7 +3234,7 @@
         <v>5</v>
       </c>
       <c r="AW15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AX15" t="n">
         <v>17</v>
@@ -3176,13 +3243,13 @@
         <v>6</v>
       </c>
       <c r="AZ15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BA15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC15" t="n">
         <v>28</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-11-2014-15</t>
+          <t>2014-12-11</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>7</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE16" t="n">
         <v>2</v>
@@ -3307,10 +3374,10 @@
         <v>25</v>
       </c>
       <c r="AI16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ16" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AK16" t="n">
         <v>5</v>
@@ -3322,13 +3389,13 @@
         <v>28</v>
       </c>
       <c r="AN16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO16" t="n">
         <v>7</v>
       </c>
       <c r="AP16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ16" t="n">
         <v>8</v>
@@ -3340,7 +3407,7 @@
         <v>19</v>
       </c>
       <c r="AT16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU16" t="n">
         <v>12</v>
@@ -3355,19 +3422,19 @@
         <v>26</v>
       </c>
       <c r="AY16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ16" t="n">
         <v>4</v>
       </c>
       <c r="BA16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB16" t="n">
         <v>15</v>
       </c>
       <c r="BC16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-11-2014-15</t>
+          <t>2014-12-11</t>
         </is>
       </c>
     </row>
@@ -3474,37 +3541,37 @@
         <v>-3.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE17" t="n">
         <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
         <v>25</v>
       </c>
       <c r="AI17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO17" t="n">
         <v>12</v>
@@ -3513,7 +3580,7 @@
         <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3534,7 +3601,7 @@
         <v>7</v>
       </c>
       <c r="AX17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY17" t="n">
         <v>9</v>
@@ -3543,10 +3610,10 @@
         <v>9</v>
       </c>
       <c r="BA17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC17" t="n">
         <v>21</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-11-2014-15</t>
+          <t>2014-12-11</t>
         </is>
       </c>
     </row>
@@ -3656,34 +3723,34 @@
         <v>-1.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE18" t="n">
         <v>14</v>
       </c>
       <c r="AF18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG18" t="n">
         <v>15</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>14</v>
       </c>
       <c r="AH18" t="n">
         <v>2</v>
       </c>
       <c r="AI18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ18" t="n">
         <v>16</v>
       </c>
       <c r="AK18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL18" t="n">
         <v>24</v>
       </c>
       <c r="AM18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN18" t="n">
         <v>18</v>
@@ -3692,16 +3759,16 @@
         <v>13</v>
       </c>
       <c r="AP18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR18" t="n">
         <v>10</v>
       </c>
       <c r="AS18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT18" t="n">
         <v>22</v>
@@ -3725,10 +3792,10 @@
         <v>24</v>
       </c>
       <c r="BA18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC18" t="n">
         <v>18</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-11-2014-15</t>
+          <t>2014-12-11</t>
         </is>
       </c>
     </row>
@@ -3838,13 +3905,13 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE19" t="n">
         <v>27</v>
       </c>
       <c r="AF19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG19" t="n">
         <v>27</v>
@@ -3853,10 +3920,10 @@
         <v>11</v>
       </c>
       <c r="AI19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK19" t="n">
         <v>24</v>
@@ -3901,7 +3968,7 @@
         <v>25</v>
       </c>
       <c r="AY19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ19" t="n">
         <v>17</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-11-2014-15</t>
+          <t>2014-12-11</t>
         </is>
       </c>
     </row>
@@ -3942,109 +4009,109 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F20" t="n">
         <v>11</v>
       </c>
       <c r="G20" t="n">
-        <v>0.45</v>
+        <v>0.476</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
       </c>
       <c r="I20" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="J20" t="n">
-        <v>84.59999999999999</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.457</v>
+        <v>0.454</v>
       </c>
       <c r="L20" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="M20" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.343</v>
+        <v>0.338</v>
       </c>
       <c r="O20" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P20" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.742</v>
+        <v>0.725</v>
       </c>
       <c r="R20" t="n">
-        <v>11.6</v>
+        <v>12.2</v>
       </c>
       <c r="S20" t="n">
-        <v>31</v>
+        <v>31.2</v>
       </c>
       <c r="T20" t="n">
-        <v>42.6</v>
+        <v>43.5</v>
       </c>
       <c r="U20" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V20" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="W20" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X20" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="AB20" t="n">
         <v>100.9</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.4</v>
+        <v>0.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="AE20" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF20" t="n">
         <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH20" t="n">
         <v>25</v>
       </c>
       <c r="AI20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ20" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AK20" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM20" t="n">
         <v>22</v>
@@ -4053,16 +4120,16 @@
         <v>17</v>
       </c>
       <c r="AO20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ20" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AR20" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AS20" t="n">
         <v>20</v>
@@ -4080,22 +4147,22 @@
         <v>15</v>
       </c>
       <c r="AX20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AY20" t="n">
         <v>26</v>
       </c>
       <c r="AZ20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB20" t="n">
         <v>16</v>
       </c>
       <c r="BC20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-11-2014-15</t>
+          <t>2014-12-11</t>
         </is>
       </c>
     </row>
@@ -4214,7 +4281,7 @@
         <v>28</v>
       </c>
       <c r="AH21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI21" t="n">
         <v>20</v>
@@ -4232,7 +4299,7 @@
         <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR21" t="n">
         <v>20</v>
@@ -4274,7 +4341,7 @@
         <v>27</v>
       </c>
       <c r="BB21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC21" t="n">
         <v>25</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-11-2014-15</t>
+          <t>2014-12-11</t>
         </is>
       </c>
     </row>
@@ -4306,25 +4373,25 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" t="n">
         <v>13</v>
       </c>
       <c r="G22" t="n">
-        <v>0.409</v>
+        <v>0.381</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
       </c>
       <c r="I22" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="J22" t="n">
-        <v>81</v>
+        <v>80.7</v>
       </c>
       <c r="K22" t="n">
         <v>0.431</v>
@@ -4333,76 +4400,76 @@
         <v>7.1</v>
       </c>
       <c r="M22" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.32</v>
+        <v>0.323</v>
       </c>
       <c r="O22" t="n">
-        <v>17</v>
+        <v>16.8</v>
       </c>
       <c r="P22" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.74</v>
+        <v>0.732</v>
       </c>
       <c r="R22" t="n">
         <v>11.4</v>
       </c>
       <c r="S22" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="T22" t="n">
-        <v>44.9</v>
+        <v>44.8</v>
       </c>
       <c r="U22" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="V22" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="W22" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="X22" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z22" t="n">
         <v>24</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB22" t="n">
-        <v>93.90000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>-0.5</v>
+        <v>-0.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AE22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF22" t="n">
         <v>20</v>
       </c>
       <c r="AG22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH22" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AI22" t="n">
         <v>26</v>
       </c>
       <c r="AJ22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK22" t="n">
         <v>25</v>
@@ -4411,25 +4478,25 @@
         <v>18</v>
       </c>
       <c r="AM22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR22" t="n">
         <v>9</v>
       </c>
       <c r="AS22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT22" t="n">
         <v>6</v>
@@ -4441,22 +4508,22 @@
         <v>25</v>
       </c>
       <c r="AW22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX22" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AY22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB22" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BC22" t="n">
         <v>16</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-11-2014-15</t>
+          <t>2014-12-11</t>
         </is>
       </c>
     </row>
@@ -4488,88 +4555,88 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E23" t="n">
         <v>9</v>
       </c>
       <c r="F23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G23" t="n">
-        <v>0.391</v>
+        <v>0.375</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37</v>
+        <v>36.8</v>
       </c>
       <c r="J23" t="n">
-        <v>80.40000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="K23" t="n">
-        <v>0.46</v>
+        <v>0.456</v>
       </c>
       <c r="L23" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M23" t="n">
-        <v>18.2</v>
+        <v>17.9</v>
       </c>
       <c r="N23" t="n">
-        <v>0.375</v>
+        <v>0.374</v>
       </c>
       <c r="O23" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="P23" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.726</v>
+        <v>0.727</v>
       </c>
       <c r="R23" t="n">
-        <v>8.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>32.2</v>
+        <v>32.5</v>
       </c>
       <c r="T23" t="n">
-        <v>41.1</v>
+        <v>41.8</v>
       </c>
       <c r="U23" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="V23" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W23" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X23" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AA23" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.09999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="AC23" t="n">
-        <v>-4.5</v>
+        <v>-5</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF23" t="n">
         <v>22</v>
@@ -4581,13 +4648,13 @@
         <v>23</v>
       </c>
       <c r="AI23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ23" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AL23" t="n">
         <v>20</v>
@@ -4596,7 +4663,7 @@
         <v>25</v>
       </c>
       <c r="AN23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
@@ -4605,40 +4672,40 @@
         <v>29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR23" t="n">
         <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AT23" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AU23" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AV23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX23" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AY23" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AZ23" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA23" t="n">
         <v>25</v>
       </c>
       <c r="BB23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC23" t="n">
         <v>23</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-11-2014-15</t>
+          <t>2014-12-11</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-12.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE24" t="n">
         <v>30</v>
@@ -4766,7 +4833,7 @@
         <v>30</v>
       </c>
       <c r="AJ24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK24" t="n">
         <v>29</v>
@@ -4784,7 +4851,7 @@
         <v>23</v>
       </c>
       <c r="AP24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
@@ -4793,7 +4860,7 @@
         <v>11</v>
       </c>
       <c r="AS24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT24" t="n">
         <v>23</v>
@@ -4811,13 +4878,13 @@
         <v>10</v>
       </c>
       <c r="AY24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ24" t="n">
         <v>23</v>
       </c>
       <c r="BA24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-11-2014-15</t>
+          <t>2014-12-11</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>1.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4951,7 +5018,7 @@
         <v>5</v>
       </c>
       <c r="AK25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL25" t="n">
         <v>3</v>
@@ -4978,7 +5045,7 @@
         <v>16</v>
       </c>
       <c r="AT25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU25" t="n">
         <v>15</v>
@@ -4996,7 +5063,7 @@
         <v>8</v>
       </c>
       <c r="AZ25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA25" t="n">
         <v>12</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-11-2014-15</t>
+          <t>2014-12-11</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>6.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
         <v>2</v>
@@ -5127,10 +5194,10 @@
         <v>25</v>
       </c>
       <c r="AI26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK26" t="n">
         <v>20</v>
@@ -5154,7 +5221,7 @@
         <v>3</v>
       </c>
       <c r="AR26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS26" t="n">
         <v>2</v>
@@ -5163,16 +5230,16 @@
         <v>1</v>
       </c>
       <c r="AU26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW26" t="n">
         <v>26</v>
       </c>
       <c r="AX26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-11-2014-15</t>
+          <t>2014-12-11</t>
         </is>
       </c>
     </row>
@@ -5216,46 +5283,46 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E27" t="n">
         <v>11</v>
       </c>
       <c r="F27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G27" t="n">
-        <v>0.478</v>
+        <v>0.5</v>
       </c>
       <c r="H27" t="n">
-        <v>48.9</v>
+        <v>48.7</v>
       </c>
       <c r="I27" t="n">
-        <v>35.7</v>
+        <v>35.5</v>
       </c>
       <c r="J27" t="n">
-        <v>77.8</v>
+        <v>77.5</v>
       </c>
       <c r="K27" t="n">
         <v>0.458</v>
       </c>
       <c r="L27" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="M27" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="N27" t="n">
-        <v>0.327</v>
+        <v>0.32</v>
       </c>
       <c r="O27" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="P27" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.78</v>
+        <v>0.785</v>
       </c>
       <c r="R27" t="n">
         <v>11</v>
@@ -5267,10 +5334,10 @@
         <v>44.9</v>
       </c>
       <c r="U27" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="V27" t="n">
-        <v>16.3</v>
+        <v>16</v>
       </c>
       <c r="W27" t="n">
         <v>6</v>
@@ -5279,7 +5346,7 @@
         <v>3.7</v>
       </c>
       <c r="Y27" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z27" t="n">
         <v>23.2</v>
@@ -5288,25 +5355,25 @@
         <v>27</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.4</v>
+        <v>101.1</v>
       </c>
       <c r="AC27" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE27" t="n">
         <v>14</v>
       </c>
       <c r="AF27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG27" t="n">
         <v>14</v>
       </c>
       <c r="AH27" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AI27" t="n">
         <v>25</v>
@@ -5315,7 +5382,7 @@
         <v>29</v>
       </c>
       <c r="AK27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL27" t="n">
         <v>30</v>
@@ -5324,7 +5391,7 @@
         <v>30</v>
       </c>
       <c r="AN27" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5333,7 +5400,7 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR27" t="n">
         <v>13</v>
@@ -5348,7 +5415,7 @@
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW27" t="n">
         <v>28</v>
@@ -5366,10 +5433,10 @@
         <v>1</v>
       </c>
       <c r="BB27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-11-2014-15</t>
+          <t>2014-12-11</t>
         </is>
       </c>
     </row>
@@ -5398,70 +5465,70 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F28" t="n">
         <v>6</v>
       </c>
       <c r="G28" t="n">
-        <v>0.714</v>
+        <v>0.727</v>
       </c>
       <c r="H28" t="n">
         <v>48.2</v>
       </c>
       <c r="I28" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J28" t="n">
-        <v>81.90000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.461</v>
+        <v>0.464</v>
       </c>
       <c r="L28" t="n">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>21.9</v>
+        <v>22.2</v>
       </c>
       <c r="N28" t="n">
-        <v>0.367</v>
+        <v>0.375</v>
       </c>
       <c r="O28" t="n">
-        <v>17.7</v>
+        <v>17.5</v>
       </c>
       <c r="P28" t="n">
-        <v>22.6</v>
+        <v>22.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.785</v>
+        <v>0.786</v>
       </c>
       <c r="R28" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="S28" t="n">
-        <v>34.6</v>
+        <v>34.3</v>
       </c>
       <c r="T28" t="n">
-        <v>44.2</v>
+        <v>44</v>
       </c>
       <c r="U28" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="V28" t="n">
-        <v>13.9</v>
+        <v>14.2</v>
       </c>
       <c r="W28" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X28" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z28" t="n">
         <v>19.3</v>
@@ -5473,49 +5540,49 @@
         <v>101.3</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD28" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AE28" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AF28" t="n">
         <v>6</v>
       </c>
       <c r="AG28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH28" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AI28" t="n">
         <v>14</v>
       </c>
       <c r="AJ28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK28" t="n">
         <v>9</v>
       </c>
       <c r="AL28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM28" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AN28" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AO28" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AP28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR28" t="n">
         <v>25</v>
@@ -5524,16 +5591,16 @@
         <v>3</v>
       </c>
       <c r="AT28" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AW28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX28" t="n">
         <v>4</v>
@@ -5548,10 +5615,10 @@
         <v>24</v>
       </c>
       <c r="BB28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-11-2014-15</t>
+          <t>2014-12-11</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>8</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
         <v>5</v>
@@ -5667,10 +5734,10 @@
         <v>6</v>
       </c>
       <c r="AG29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI29" t="n">
         <v>6</v>
@@ -5679,7 +5746,7 @@
         <v>12</v>
       </c>
       <c r="AK29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AL29" t="n">
         <v>8</v>
@@ -5712,7 +5779,7 @@
         <v>22</v>
       </c>
       <c r="AV29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW29" t="n">
         <v>14</v>
@@ -5721,10 +5788,10 @@
         <v>14</v>
       </c>
       <c r="AY29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA29" t="n">
         <v>3</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-11-2014-15</t>
+          <t>2014-12-11</t>
         </is>
       </c>
     </row>
@@ -5840,16 +5907,16 @@
         <v>-5.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE30" t="n">
         <v>24</v>
       </c>
       <c r="AF30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH30" t="n">
         <v>25</v>
@@ -5864,7 +5931,7 @@
         <v>11</v>
       </c>
       <c r="AL30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM30" t="n">
         <v>19</v>
@@ -5873,19 +5940,19 @@
         <v>23</v>
       </c>
       <c r="AO30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP30" t="n">
         <v>12</v>
       </c>
       <c r="AQ30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR30" t="n">
         <v>13</v>
       </c>
       <c r="AS30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT30" t="n">
         <v>25</v>
@@ -5897,13 +5964,13 @@
         <v>17</v>
       </c>
       <c r="AW30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX30" t="n">
         <v>9</v>
       </c>
       <c r="AY30" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ30" t="n">
         <v>3</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-11-2014-15</t>
+          <t>2014-12-11</t>
         </is>
       </c>
     </row>
@@ -6022,10 +6089,10 @@
         <v>3.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF31" t="n">
         <v>6</v>
@@ -6034,7 +6101,7 @@
         <v>8</v>
       </c>
       <c r="AH31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI31" t="n">
         <v>7</v>
@@ -6055,16 +6122,16 @@
         <v>1</v>
       </c>
       <c r="AO31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP31" t="n">
         <v>18</v>
       </c>
       <c r="AQ31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS31" t="n">
         <v>9</v>
@@ -6088,7 +6155,7 @@
         <v>10</v>
       </c>
       <c r="AZ31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA31" t="n">
         <v>9</v>
@@ -6097,7 +6164,7 @@
         <v>17</v>
       </c>
       <c r="BC31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-11-2014-15</t>
+          <t>2014-12-11</t>
         </is>
       </c>
     </row>
